--- a/biology/Zoologie/Draculoides_trinity/Draculoides_trinity.xlsx
+++ b/biology/Zoologie/Draculoides_trinity/Draculoides_trinity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Draculoides trinity est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pilbara en Australie-Occidentale[1]. Elle se rencontre vers Pannawonica.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pilbara en Australie-Occidentale. Elle se rencontre vers Pannawonica.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,76 mm et la femelle paratype 5,76 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,76 mm et la femelle paratype 5,76 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paradraculoides trinity par Framenau, Hamilton, Finston, Humphreys, Abrams, Huey et Harvey en 2018. Elle est placée dans le genre Draculoides par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paradraculoides trinity par Framenau, Hamilton, Finston, Humphreys, Abrams, Huey et Harvey en 2018. Elle est placée dans le genre Draculoides par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Framenau, Hamilton, Finston, Humphreys, Abrams, Huey &amp; Harvey, 2018 : « Molecular and morphological characterization of new species of hypogean Paradraculoides (Schizomida: Flubbardiidae) from the arid Pilbara bioregion of Western Australia. » The Journal of Arachnology, vol. 46, no 3, p. 507-537 (texte intégral).</t>
         </is>
